--- a/ProCarrier/ProCarrierService/OCT_RESULTS/HV_EU_REFUNDS.xlsx
+++ b/ProCarrier/ProCarrierService/OCT_RESULTS/HV_EU_REFUNDS.xlsx
@@ -478,13 +478,13 @@
         <v>2852</v>
       </c>
       <c r="D2" t="n">
-        <v>598.92</v>
+        <v>658.92792</v>
       </c>
       <c r="E2" t="n">
         <v>285.752</v>
       </c>
       <c r="F2" t="n">
-        <v>884.6719999999999</v>
+        <v>944.6799199999999</v>
       </c>
     </row>
     <row r="3">
@@ -500,13 +500,13 @@
         <v>672</v>
       </c>
       <c r="D3" t="n">
-        <v>141.12</v>
+        <v>158.0544</v>
       </c>
       <c r="E3" t="n">
         <v>80.64</v>
       </c>
       <c r="F3" t="n">
-        <v>221.76</v>
+        <v>238.6944</v>
       </c>
     </row>
   </sheetData>
